--- a/data/league_data/france/18/france_passing.xlsx
+++ b/data/league_data/france/18/france_passing.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B237E133-8B12-8542-8CBD-D13F6D589BDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD4541-11A3-C84F-B7F3-EE423EA34F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -220,9 +220,6 @@
     <t>Rennes</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1841,12 +1838,15 @@
   </si>
   <si>
     <t>Gabriel Dos Santos</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2707,14 +2707,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD500"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
@@ -2745,7 +2745,7 @@
     <col min="30" max="30" width="4.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4585,15 +4585,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>37</v>
@@ -4677,12 +4677,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>25</v>
@@ -4769,12 +4769,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>25</v>
@@ -4861,15 +4861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>37</v>
@@ -4953,15 +4953,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>64</v>
@@ -5045,12 +5045,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>25</v>
@@ -5059,7 +5059,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="4">
         <v>24</v>
@@ -5137,12 +5137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>25</v>
@@ -5229,15 +5229,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>39</v>
@@ -5321,12 +5321,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>25</v>
@@ -5413,15 +5413,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>22</v>
@@ -5505,12 +5505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>25</v>
@@ -5597,12 +5597,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>57</v>
@@ -5689,15 +5689,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>39</v>
@@ -5781,12 +5781,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>25</v>
@@ -5795,7 +5795,7 @@
         <v>52</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F34" s="4">
         <v>24</v>
@@ -5873,21 +5873,21 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F35" s="4">
         <v>24</v>
@@ -5965,12 +5965,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>25</v>
@@ -6057,15 +6057,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>92</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>52</v>
@@ -6149,12 +6149,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>25</v>
@@ -6241,12 +6241,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>25</v>
@@ -6255,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="4">
         <v>30</v>
@@ -6333,12 +6333,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>25</v>
@@ -6347,7 +6347,7 @@
         <v>64</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="4">
         <v>27</v>
@@ -6425,12 +6425,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>25</v>
@@ -6517,21 +6517,21 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="F42" s="4">
         <v>30</v>
@@ -6609,21 +6609,21 @@
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F43" s="4">
         <v>23</v>
@@ -6701,21 +6701,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F44" s="4">
         <v>25</v>
@@ -6793,12 +6793,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>25</v>
@@ -6807,7 +6807,7 @@
         <v>37</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" s="4">
         <v>28</v>
@@ -6885,21 +6885,21 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F46" s="4">
         <v>24</v>
@@ -6977,12 +6977,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>25</v>
@@ -7069,12 +7069,12 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>25</v>
@@ -7083,7 +7083,7 @@
         <v>37</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F48" s="4">
         <v>31</v>
@@ -7161,12 +7161,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>25</v>
@@ -7175,7 +7175,7 @@
         <v>54</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F49" s="4">
         <v>24</v>
@@ -7253,15 +7253,15 @@
         <v>174</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>112</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>113</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>22</v>
@@ -7345,15 +7345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>37</v>
@@ -7437,21 +7437,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F52" s="4">
         <v>33</v>
@@ -7529,12 +7529,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>25</v>
@@ -7621,15 +7621,15 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>37</v>
@@ -7713,12 +7713,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>25</v>
@@ -7727,7 +7727,7 @@
         <v>64</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F55" s="4">
         <v>24</v>
@@ -7805,15 +7805,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>37</v>
@@ -7897,15 +7897,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>54</v>
@@ -7989,12 +7989,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>57</v>
@@ -8081,21 +8081,21 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" s="4">
         <v>30</v>
@@ -8173,15 +8173,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>54</v>
@@ -8265,12 +8265,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="61" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>25</v>
@@ -8357,12 +8357,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>25</v>
@@ -8449,15 +8449,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>37</v>
@@ -8541,12 +8541,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="64" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>25</v>
@@ -8633,12 +8633,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>57</v>
@@ -8725,12 +8725,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>25</v>
@@ -8817,15 +8817,15 @@
         <v>195</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>134</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>37</v>
@@ -8909,15 +8909,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>37</v>
@@ -9001,12 +9001,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>25</v>
@@ -9093,15 +9093,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>52</v>
@@ -9185,12 +9185,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>25</v>
@@ -9277,12 +9277,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>25</v>
@@ -9291,7 +9291,7 @@
         <v>37</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F72" s="4">
         <v>25</v>
@@ -9369,12 +9369,12 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>25</v>
@@ -9461,15 +9461,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D74" s="4" t="s">
         <v>37</v>
@@ -9553,12 +9553,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>25</v>
@@ -9567,7 +9567,7 @@
         <v>22</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" s="4">
         <v>32</v>
@@ -9645,18 +9645,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>35</v>
@@ -9737,12 +9737,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>25</v>
@@ -9829,15 +9829,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D78" s="4" t="s">
         <v>37</v>
@@ -9921,21 +9921,21 @@
         <v>141</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F79" s="4">
         <v>26</v>
@@ -10013,12 +10013,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>25</v>
@@ -10105,12 +10105,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>25</v>
@@ -10119,7 +10119,7 @@
         <v>54</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F81" s="4">
         <v>20</v>
@@ -10197,12 +10197,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>25</v>
@@ -10289,12 +10289,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>25</v>
@@ -10303,7 +10303,7 @@
         <v>39</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F83" s="4">
         <v>29</v>
@@ -10381,12 +10381,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>25</v>
@@ -10395,7 +10395,7 @@
         <v>39</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F84" s="4">
         <v>22</v>
@@ -10473,21 +10473,21 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F85" s="4">
         <v>30</v>
@@ -10565,12 +10565,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>25</v>
@@ -10657,12 +10657,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="87" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>25</v>
@@ -10749,15 +10749,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C88" s="4" t="s">
         <v>157</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>158</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>22</v>
@@ -10841,15 +10841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>160</v>
       </c>
       <c r="D89" s="4" t="s">
         <v>54</v>
@@ -10933,12 +10933,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>25</v>
@@ -10947,7 +10947,7 @@
         <v>37</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F90" s="4">
         <v>27</v>
@@ -11025,12 +11025,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="91" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>57</v>
@@ -11117,21 +11117,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F92" s="4">
         <v>24</v>
@@ -11209,15 +11209,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="D93" s="4" t="s">
         <v>37</v>
@@ -11301,21 +11301,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="94" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F94" s="4">
         <v>27</v>
@@ -11393,15 +11393,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="95" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>54</v>
@@ -11485,15 +11485,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="96" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C96" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>52</v>
@@ -11577,12 +11577,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>57</v>
@@ -11591,7 +11591,7 @@
         <v>37</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F97" s="4">
         <v>31</v>
@@ -11669,15 +11669,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>37</v>
@@ -11761,12 +11761,12 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>25</v>
@@ -11853,15 +11853,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>52</v>
@@ -11945,21 +11945,21 @@
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F101" s="4">
         <v>29</v>
@@ -12037,18 +12037,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E102" s="4" t="s">
         <v>58</v>
@@ -12129,12 +12129,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="103" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>25</v>
@@ -12221,12 +12221,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="104" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>25</v>
@@ -12235,7 +12235,7 @@
         <v>37</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F104" s="4">
         <v>29</v>
@@ -12313,12 +12313,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>25</v>
@@ -12405,21 +12405,21 @@
         <v>125</v>
       </c>
     </row>
-    <row r="106" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D106" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F106" s="4">
         <v>21</v>
@@ -12497,12 +12497,12 @@
         <v>136</v>
       </c>
     </row>
-    <row r="107" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>25</v>
@@ -12589,15 +12589,15 @@
         <v>138</v>
       </c>
     </row>
-    <row r="108" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>37</v>
@@ -12681,12 +12681,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>25</v>
@@ -12773,15 +12773,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>37</v>
@@ -12865,12 +12865,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="111" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>25</v>
@@ -12879,7 +12879,7 @@
         <v>37</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F111" s="4">
         <v>21</v>
@@ -12957,12 +12957,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>25</v>
@@ -12971,7 +12971,7 @@
         <v>37</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F112" s="4">
         <v>25</v>
@@ -13049,15 +13049,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>37</v>
@@ -13141,15 +13141,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="114" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>54</v>
@@ -13233,12 +13233,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>25</v>
@@ -13247,7 +13247,7 @@
         <v>37</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F115" s="4">
         <v>25</v>
@@ -13325,18 +13325,18 @@
         <v>81</v>
       </c>
     </row>
-    <row r="116" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E116" s="4" t="s">
         <v>58</v>
@@ -13417,12 +13417,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>25</v>
@@ -13509,12 +13509,12 @@
         <v>133</v>
       </c>
     </row>
-    <row r="118" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>25</v>
@@ -13523,7 +13523,7 @@
         <v>39</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F118" s="4">
         <v>22</v>
@@ -13601,12 +13601,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="119" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>25</v>
@@ -13693,12 +13693,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="120" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>25</v>
@@ -13707,7 +13707,7 @@
         <v>64</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F120" s="4">
         <v>30</v>
@@ -13785,12 +13785,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="121" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>25</v>
@@ -13877,15 +13877,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="122" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="D122" s="4" t="s">
         <v>37</v>
@@ -13969,15 +13969,15 @@
         <v>99</v>
       </c>
     </row>
-    <row r="123" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>52</v>
@@ -14061,12 +14061,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>25</v>
@@ -14153,15 +14153,15 @@
         <v>108</v>
       </c>
     </row>
-    <row r="125" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>37</v>
@@ -14245,15 +14245,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D126" s="4" t="s">
         <v>39</v>
@@ -14337,15 +14337,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="127" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>54</v>
@@ -14429,15 +14429,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="128" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>64</v>
@@ -14521,15 +14521,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D129" s="4" t="s">
         <v>52</v>
@@ -14613,12 +14613,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>25</v>
@@ -14627,7 +14627,7 @@
         <v>39</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F130" s="4">
         <v>27</v>
@@ -14705,21 +14705,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="131" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="D131" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F131" s="4">
         <v>26</v>
@@ -14797,12 +14797,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>25</v>
@@ -14889,21 +14889,21 @@
         <v>150</v>
       </c>
     </row>
-    <row r="133" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F133" s="4">
         <v>23</v>
@@ -14981,12 +14981,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="134" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>25</v>
@@ -14995,7 +14995,7 @@
         <v>54</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F134" s="4">
         <v>20</v>
@@ -15073,15 +15073,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>49</v>
@@ -15165,15 +15165,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="136" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>39</v>
@@ -15257,12 +15257,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>25</v>
@@ -15271,7 +15271,7 @@
         <v>64</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F137" s="4">
         <v>24</v>
@@ -15349,12 +15349,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="138" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>25</v>
@@ -15363,7 +15363,7 @@
         <v>37</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F138" s="4">
         <v>23</v>
@@ -15441,15 +15441,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>216</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>217</v>
       </c>
       <c r="D139" s="4" t="s">
         <v>37</v>
@@ -15533,15 +15533,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>52</v>
@@ -15625,12 +15625,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>25</v>
@@ -15639,7 +15639,7 @@
         <v>39</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F141" s="4">
         <v>30</v>
@@ -15717,21 +15717,21 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C142" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D142" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F142" s="4">
         <v>30</v>
@@ -15809,12 +15809,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="143" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>25</v>
@@ -15823,7 +15823,7 @@
         <v>52</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F143" s="4">
         <v>27</v>
@@ -15901,21 +15901,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="144" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F144" s="4">
         <v>24</v>
@@ -15993,12 +15993,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="145" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>25</v>
@@ -16007,7 +16007,7 @@
         <v>39</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F145" s="4">
         <v>22</v>
@@ -16085,12 +16085,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="146" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>25</v>
@@ -16177,12 +16177,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="147" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>25</v>
@@ -16269,15 +16269,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="148" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C148" s="4" t="s">
         <v>227</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>228</v>
       </c>
       <c r="D148" s="4" t="s">
         <v>54</v>
@@ -16361,15 +16361,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>229</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="D149" s="4" t="s">
         <v>52</v>
@@ -16453,12 +16453,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>25</v>
@@ -16545,12 +16545,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="151" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>25</v>
@@ -16559,7 +16559,7 @@
         <v>37</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F151" s="4">
         <v>28</v>
@@ -16637,21 +16637,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="152" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F152" s="4">
         <v>32</v>
@@ -16729,21 +16729,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="153" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D153" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F153" s="4">
         <v>29</v>
@@ -16821,12 +16821,12 @@
         <v>114</v>
       </c>
     </row>
-    <row r="154" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>25</v>
@@ -16835,7 +16835,7 @@
         <v>37</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F154" s="4">
         <v>25</v>
@@ -16913,12 +16913,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="155" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>25</v>
@@ -16927,7 +16927,7 @@
         <v>52</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F155" s="4">
         <v>18</v>
@@ -17005,15 +17005,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="156" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C156" s="4" t="s">
         <v>237</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>238</v>
       </c>
       <c r="D156" s="4" t="s">
         <v>54</v>
@@ -17097,15 +17097,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="157" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>240</v>
       </c>
       <c r="D157" s="4" t="s">
         <v>39</v>
@@ -17189,15 +17189,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="158" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>37</v>
@@ -17281,12 +17281,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="159" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>25</v>
@@ -17295,7 +17295,7 @@
         <v>37</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F159" s="4">
         <v>28</v>
@@ -17373,21 +17373,21 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D160" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F160" s="4">
         <v>34</v>
@@ -17465,12 +17465,12 @@
         <v>176</v>
       </c>
     </row>
-    <row r="161" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>25</v>
@@ -17557,15 +17557,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="D162" s="4" t="s">
         <v>39</v>
@@ -17649,15 +17649,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="163" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" s="4" t="s">
         <v>39</v>
@@ -17741,15 +17741,15 @@
         <v>129</v>
       </c>
     </row>
-    <row r="164" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D164" s="4" t="s">
         <v>37</v>
@@ -17833,15 +17833,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="165" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="D165" s="4" t="s">
         <v>52</v>
@@ -17925,21 +17925,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F166" s="4">
         <v>23</v>
@@ -18017,15 +18017,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D167" s="4" t="s">
         <v>54</v>
@@ -18109,15 +18109,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="168" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D168" s="4" t="s">
         <v>54</v>
@@ -18201,12 +18201,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>25</v>
@@ -18293,15 +18293,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="170" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D170" s="4" t="s">
         <v>64</v>
@@ -18385,21 +18385,21 @@
         <v>54</v>
       </c>
     </row>
-    <row r="171" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C171" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F171" s="4">
         <v>27</v>
@@ -18477,15 +18477,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="172" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>259</v>
       </c>
       <c r="D172" s="4" t="s">
         <v>37</v>
@@ -18569,21 +18569,21 @@
         <v>115</v>
       </c>
     </row>
-    <row r="173" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F173" s="4">
         <v>22</v>
@@ -18661,12 +18661,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>25</v>
@@ -18753,12 +18753,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="175" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>25</v>
@@ -18845,12 +18845,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>25</v>
@@ -18937,21 +18937,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D177" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F177" s="4">
         <v>21</v>
@@ -19029,15 +19029,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="178" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D178" s="4" t="s">
         <v>37</v>
@@ -19121,15 +19121,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="179" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>54</v>
@@ -19213,12 +19213,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>25</v>
@@ -19305,21 +19305,21 @@
         <v>58</v>
       </c>
     </row>
-    <row r="181" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F181" s="4">
         <v>27</v>
@@ -19397,12 +19397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>25</v>
@@ -19489,12 +19489,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>25</v>
@@ -19503,7 +19503,7 @@
         <v>64</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F183" s="4">
         <v>30</v>
@@ -19581,15 +19581,15 @@
         <v>83</v>
       </c>
     </row>
-    <row r="184" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D184" s="4" t="s">
         <v>39</v>
@@ -19673,12 +19673,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>25</v>
@@ -19765,12 +19765,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="186" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>25</v>
@@ -19857,15 +19857,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="187" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D187" s="4" t="s">
         <v>64</v>
@@ -19949,15 +19949,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="188" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D188" s="4" t="s">
         <v>54</v>
@@ -20041,15 +20041,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="189" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>54</v>
@@ -20133,15 +20133,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D190" s="4" t="s">
         <v>54</v>
@@ -20225,12 +20225,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>25</v>
@@ -20317,12 +20317,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="192" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>25</v>
@@ -20409,15 +20409,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D193" s="4" t="s">
         <v>37</v>
@@ -20501,15 +20501,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="194" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="D194" s="4" t="s">
         <v>37</v>
@@ -20593,15 +20593,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="195" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D195" s="4" t="s">
         <v>37</v>
@@ -20685,21 +20685,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="196" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D196" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F196" s="4">
         <v>25</v>
@@ -20777,12 +20777,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>25</v>
@@ -20869,21 +20869,21 @@
         <v>81</v>
       </c>
     </row>
-    <row r="198" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F198" s="4">
         <v>25</v>
@@ -20961,21 +20961,21 @@
         <v>76</v>
       </c>
     </row>
-    <row r="199" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C199" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D199" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F199" s="4">
         <v>21</v>
@@ -21053,12 +21053,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="200" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>25</v>
@@ -21145,12 +21145,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="201" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>25</v>
@@ -21159,7 +21159,7 @@
         <v>64</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F201" s="4">
         <v>31</v>
@@ -21237,18 +21237,18 @@
         <v>76</v>
       </c>
     </row>
-    <row r="202" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>32</v>
@@ -21329,21 +21329,21 @@
         <v>88</v>
       </c>
     </row>
-    <row r="203" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D203" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F203" s="4">
         <v>26</v>
@@ -21421,21 +21421,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>292</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>293</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F204" s="4">
         <v>27</v>
@@ -21513,21 +21513,21 @@
         <v>83</v>
       </c>
     </row>
-    <row r="205" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D205" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F205" s="4">
         <v>34</v>
@@ -21605,12 +21605,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="206" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>57</v>
@@ -21697,21 +21697,21 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E207" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F207" s="4">
         <v>24</v>
@@ -21789,21 +21789,21 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E208" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F208" s="4">
         <v>33</v>
@@ -21881,12 +21881,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="209" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>25</v>
@@ -21895,7 +21895,7 @@
         <v>54</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F209" s="4">
         <v>33</v>
@@ -21973,21 +21973,21 @@
         <v>67</v>
       </c>
     </row>
-    <row r="210" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F210" s="4">
         <v>23</v>
@@ -22065,12 +22065,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="211" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>25</v>
@@ -22079,7 +22079,7 @@
         <v>37</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F211" s="4">
         <v>24</v>
@@ -22157,15 +22157,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="212" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>37</v>
@@ -22249,12 +22249,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="213" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>25</v>
@@ -22341,12 +22341,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>25</v>
@@ -22433,21 +22433,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="215" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F215" s="4">
         <v>20</v>
@@ -22525,21 +22525,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D216" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F216" s="4">
         <v>23</v>
@@ -22617,12 +22617,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>25</v>
@@ -22631,7 +22631,7 @@
         <v>54</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F217" s="4">
         <v>20</v>
@@ -22709,21 +22709,21 @@
         <v>38</v>
       </c>
     </row>
-    <row r="218" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D218" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F218" s="4">
         <v>25</v>
@@ -22801,12 +22801,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>25</v>
@@ -22815,7 +22815,7 @@
         <v>22</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F219" s="4">
         <v>34</v>
@@ -22893,15 +22893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D220" s="4" t="s">
         <v>39</v>
@@ -22985,12 +22985,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="221" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>25</v>
@@ -23077,15 +23077,15 @@
         <v>75</v>
       </c>
     </row>
-    <row r="222" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D222" s="4" t="s">
         <v>54</v>
@@ -23169,15 +23169,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="223" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D223" s="4" t="s">
         <v>37</v>
@@ -23261,12 +23261,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="224" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>25</v>
@@ -23353,12 +23353,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="225" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>25</v>
@@ -23367,7 +23367,7 @@
         <v>54</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F225" s="4">
         <v>25</v>
@@ -23445,15 +23445,15 @@
         <v>51</v>
       </c>
     </row>
-    <row r="226" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D226" s="4" t="s">
         <v>37</v>
@@ -23537,15 +23537,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="227" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D227" s="4" t="s">
         <v>37</v>
@@ -23629,15 +23629,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D228" s="4" t="s">
         <v>37</v>
@@ -23721,15 +23721,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="229" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D229" s="4" t="s">
         <v>49</v>
@@ -23813,12 +23813,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="230" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>25</v>
@@ -23905,15 +23905,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="231" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D231" s="4" t="s">
         <v>37</v>
@@ -23997,15 +23997,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D232" s="4" t="s">
         <v>39</v>
@@ -24089,12 +24089,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="233" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>25</v>
@@ -24181,21 +24181,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D234" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F234" s="4">
         <v>25</v>
@@ -24273,15 +24273,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="235" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D235" s="4" t="s">
         <v>37</v>
@@ -24365,12 +24365,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="236" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>25</v>
@@ -24457,18 +24457,18 @@
         <v>89</v>
       </c>
     </row>
-    <row r="237" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E237" s="4" t="s">
         <v>58</v>
@@ -24549,15 +24549,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="238" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D238" s="4" t="s">
         <v>39</v>
@@ -24641,15 +24641,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="239" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D239" s="4" t="s">
         <v>39</v>
@@ -24733,12 +24733,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="240" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>25</v>
@@ -24825,18 +24825,18 @@
         <v>68</v>
       </c>
     </row>
-    <row r="241" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E241" s="4" t="s">
         <v>50</v>
@@ -24917,21 +24917,21 @@
         <v>40</v>
       </c>
     </row>
-    <row r="242" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C242" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D242" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F242" s="4">
         <v>27</v>
@@ -25009,12 +25009,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="243" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>25</v>
@@ -25023,7 +25023,7 @@
         <v>64</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F243" s="4">
         <v>20</v>
@@ -25101,12 +25101,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="244" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>25</v>
@@ -25115,7 +25115,7 @@
         <v>22</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F244" s="4">
         <v>25</v>
@@ -25193,12 +25193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>25</v>
@@ -25285,15 +25285,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="246" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D246" s="4" t="s">
         <v>37</v>
@@ -25377,15 +25377,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="247" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D247" s="4" t="s">
         <v>39</v>
@@ -25469,12 +25469,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>25</v>
@@ -25561,15 +25561,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="249" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>341</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>342</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>37</v>
@@ -25653,12 +25653,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>25</v>
@@ -25745,15 +25745,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D251" s="4" t="s">
         <v>39</v>
@@ -25837,12 +25837,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="252" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>25</v>
@@ -25929,15 +25929,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="253" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D253" s="4" t="s">
         <v>54</v>
@@ -26021,12 +26021,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>25</v>
@@ -26113,21 +26113,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D255" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F255" s="4">
         <v>29</v>
@@ -26205,15 +26205,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>349</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>350</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>37</v>
@@ -26297,15 +26297,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="257" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>37</v>
@@ -26389,12 +26389,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>25</v>
@@ -26481,12 +26481,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="259" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>25</v>
@@ -26573,15 +26573,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="260" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>49</v>
@@ -26665,12 +26665,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="261" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>25</v>
@@ -26757,12 +26757,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="262" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>25</v>
@@ -26849,12 +26849,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="263" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>25</v>
@@ -26941,12 +26941,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>57</v>
@@ -27033,15 +27033,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="265" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D265" s="4" t="s">
         <v>39</v>
@@ -27125,12 +27125,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="266" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>25</v>
@@ -27139,7 +27139,7 @@
         <v>64</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F266" s="4">
         <v>30</v>
@@ -27217,12 +27217,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="267" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>25</v>
@@ -27231,7 +27231,7 @@
         <v>39</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F267" s="4">
         <v>19</v>
@@ -27309,12 +27309,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="268" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>25</v>
@@ -27323,7 +27323,7 @@
         <v>64</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F268" s="4">
         <v>40</v>
@@ -27401,21 +27401,21 @@
         <v>70</v>
       </c>
     </row>
-    <row r="269" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D269" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F269" s="4">
         <v>28</v>
@@ -27493,15 +27493,15 @@
         <v>96</v>
       </c>
     </row>
-    <row r="270" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D270" s="4" t="s">
         <v>39</v>
@@ -27585,12 +27585,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>25</v>
@@ -27677,12 +27677,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="272" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>25</v>
@@ -27691,7 +27691,7 @@
         <v>37</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F272" s="4">
         <v>18</v>
@@ -27769,12 +27769,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>25</v>
@@ -27861,15 +27861,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="274" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>368</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>369</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>39</v>
@@ -27953,15 +27953,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="275" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D275" s="4" t="s">
         <v>37</v>
@@ -28045,15 +28045,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="276" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D276" s="4" t="s">
         <v>64</v>
@@ -28137,15 +28137,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="277" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>54</v>
@@ -28229,15 +28229,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="278" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C278" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D278" s="4" t="s">
         <v>37</v>
@@ -28321,12 +28321,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>25</v>
@@ -28413,15 +28413,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="280" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D280" s="4" t="s">
         <v>54</v>
@@ -28505,21 +28505,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="281" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D281" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F281" s="4">
         <v>26</v>
@@ -28597,15 +28597,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D282" s="4" t="s">
         <v>37</v>
@@ -28689,12 +28689,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="283" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>25</v>
@@ -28703,7 +28703,7 @@
         <v>37</v>
       </c>
       <c r="E283" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F283" s="4">
         <v>24</v>
@@ -28781,15 +28781,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="284" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D284" s="4" t="s">
         <v>54</v>
@@ -28873,12 +28873,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="285" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>25</v>
@@ -28965,15 +28965,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="286" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>382</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>383</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>37</v>
@@ -29057,12 +29057,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="287" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>25</v>
@@ -29149,15 +29149,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D288" s="4" t="s">
         <v>39</v>
@@ -29241,15 +29241,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="289" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C289" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D289" s="4" t="s">
         <v>52</v>
@@ -29333,21 +29333,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D290" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F290" s="4">
         <v>26</v>
@@ -29425,12 +29425,12 @@
         <v>49</v>
       </c>
     </row>
-    <row r="291" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>25</v>
@@ -29439,7 +29439,7 @@
         <v>37</v>
       </c>
       <c r="E291" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F291" s="4">
         <v>33</v>
@@ -29517,12 +29517,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>25</v>
@@ -29531,7 +29531,7 @@
         <v>22</v>
       </c>
       <c r="E292" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F292" s="4">
         <v>26</v>
@@ -29609,12 +29609,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>25</v>
@@ -29701,15 +29701,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="294" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>391</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>392</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>37</v>
@@ -29793,21 +29793,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="295" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C295" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D295" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E295" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F295" s="4">
         <v>34</v>
@@ -29885,15 +29885,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="296" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C296" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D296" s="4" t="s">
         <v>52</v>
@@ -29977,12 +29977,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>25</v>
@@ -30069,12 +30069,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="298" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>25</v>
@@ -30161,15 +30161,15 @@
         <v>54</v>
       </c>
     </row>
-    <row r="299" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C299" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>39</v>
@@ -30253,21 +30253,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="300" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E300" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F300" s="4">
         <v>24</v>
@@ -30345,15 +30345,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C301" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D301" s="4" t="s">
         <v>52</v>
@@ -30437,15 +30437,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C302" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D302" s="4" t="s">
         <v>37</v>
@@ -30529,21 +30529,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="303" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E303" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F303" s="4">
         <v>28</v>
@@ -30621,15 +30621,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="304" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>37</v>
@@ -30713,15 +30713,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="305" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>52</v>
@@ -30805,15 +30805,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C306" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D306" s="4" t="s">
         <v>39</v>
@@ -30897,12 +30897,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>25</v>
@@ -30989,15 +30989,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="308" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C308" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D308" s="4" t="s">
         <v>54</v>
@@ -31081,15 +31081,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C309" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D309" s="4" t="s">
         <v>39</v>
@@ -31173,12 +31173,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="310" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>25</v>
@@ -31187,7 +31187,7 @@
         <v>52</v>
       </c>
       <c r="E310" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F310" s="4">
         <v>22</v>
@@ -31265,12 +31265,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="311" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>21</v>
@@ -31357,15 +31357,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="312" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C312" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D312" s="4" t="s">
         <v>54</v>
@@ -31449,12 +31449,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="313" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>25</v>
@@ -31541,12 +31541,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="314" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>25</v>
@@ -31555,7 +31555,7 @@
         <v>39</v>
       </c>
       <c r="E314" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F314" s="4">
         <v>22</v>
@@ -31633,15 +31633,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C315" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D315" s="4" t="s">
         <v>54</v>
@@ -31725,18 +31725,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="316" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C316" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E316" s="4" t="s">
         <v>65</v>
@@ -31817,15 +31817,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="317" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C317" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D317" s="4" t="s">
         <v>39</v>
@@ -31909,15 +31909,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="318" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C318" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D318" s="4" t="s">
         <v>54</v>
@@ -32001,18 +32001,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="319" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C319" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E319" s="4" t="s">
         <v>40</v>
@@ -32093,12 +32093,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="320" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>25</v>
@@ -32185,21 +32185,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="321" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C321" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D321" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F321" s="4">
         <v>25</v>
@@ -32277,12 +32277,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="322" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>25</v>
@@ -32369,12 +32369,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>25</v>
@@ -32383,7 +32383,7 @@
         <v>39</v>
       </c>
       <c r="E323" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F323" s="4">
         <v>22</v>
@@ -32461,15 +32461,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="324" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C324" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D324" s="4" t="s">
         <v>37</v>
@@ -32553,15 +32553,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="325" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D325" s="4" t="s">
         <v>52</v>
@@ -32645,12 +32645,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="326" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>25</v>
@@ -32737,21 +32737,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D327" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E327" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F327" s="4">
         <v>25</v>
@@ -32829,12 +32829,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>25</v>
@@ -32843,7 +32843,7 @@
         <v>54</v>
       </c>
       <c r="E328" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F328" s="4">
         <v>34</v>
@@ -32921,12 +32921,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="329" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>42</v>
@@ -33013,21 +33013,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>430</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>431</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E330" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F330" s="4">
         <v>27</v>
@@ -33105,21 +33105,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="331" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C331" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D331" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E331" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F331" s="4">
         <v>21</v>
@@ -33197,12 +33197,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="332" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>25</v>
@@ -33211,7 +33211,7 @@
         <v>22</v>
       </c>
       <c r="E332" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F332" s="4">
         <v>23</v>
@@ -33289,15 +33289,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>64</v>
@@ -33381,15 +33381,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C334" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D334" s="4" t="s">
         <v>54</v>
@@ -33473,15 +33473,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="335" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C335" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D335" s="4" t="s">
         <v>54</v>
@@ -33565,21 +33565,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>437</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>438</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E336" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F336" s="4">
         <v>29</v>
@@ -33657,12 +33657,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="337" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>25</v>
@@ -33749,21 +33749,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="338" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C338" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D338" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E338" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F338" s="4">
         <v>23</v>
@@ -33841,21 +33841,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D339" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E339" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F339" s="4">
         <v>20</v>
@@ -33933,12 +33933,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>25</v>
@@ -34025,15 +34025,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="341" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C341" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D341" s="4" t="s">
         <v>64</v>
@@ -34117,12 +34117,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="342" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>25</v>
@@ -34209,15 +34209,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C343" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D343" s="4" t="s">
         <v>49</v>
@@ -34301,15 +34301,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C344" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D344" s="4" t="s">
         <v>64</v>
@@ -34393,15 +34393,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C345" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D345" s="4" t="s">
         <v>64</v>
@@ -34485,18 +34485,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="346" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E346" s="4" t="s">
         <v>40</v>
@@ -34577,21 +34577,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C347" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D347" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E347" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F347" s="4">
         <v>21</v>
@@ -34669,12 +34669,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>25</v>
@@ -34761,12 +34761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>25</v>
@@ -34775,7 +34775,7 @@
         <v>39</v>
       </c>
       <c r="E349" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F349" s="4">
         <v>30</v>
@@ -34853,12 +34853,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="350" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>25</v>
@@ -34867,7 +34867,7 @@
         <v>39</v>
       </c>
       <c r="E350" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F350" s="4">
         <v>21</v>
@@ -34945,15 +34945,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="351" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C351" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D351" s="4" t="s">
         <v>39</v>
@@ -35037,15 +35037,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>454</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>455</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>54</v>
@@ -35129,12 +35129,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>21</v>
@@ -35221,15 +35221,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="354" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C354" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D354" s="4" t="s">
         <v>52</v>
@@ -35313,15 +35313,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C355" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D355" s="4" t="s">
         <v>52</v>
@@ -35405,15 +35405,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="356" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>37</v>
@@ -35497,15 +35497,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="357" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>52</v>
@@ -35589,12 +35589,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="358" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>25</v>
@@ -35681,12 +35681,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>25</v>
@@ -35773,12 +35773,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="360" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>25</v>
@@ -35787,7 +35787,7 @@
         <v>22</v>
       </c>
       <c r="E360" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F360" s="4">
         <v>34</v>
@@ -35865,15 +35865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C361" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D361" s="4" t="s">
         <v>64</v>
@@ -35957,12 +35957,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="362" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>25</v>
@@ -36049,12 +36049,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>25</v>
@@ -36141,18 +36141,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="364" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E364" s="4" t="s">
         <v>47</v>
@@ -36233,15 +36233,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="365" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>37</v>
@@ -36325,15 +36325,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="366" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D366" s="4" t="s">
         <v>49</v>
@@ -36417,18 +36417,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="367" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C367" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E367" s="4" t="s">
         <v>62</v>
@@ -36509,15 +36509,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="368" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D368" s="4" t="s">
         <v>64</v>
@@ -36601,12 +36601,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="369" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -36615,7 +36615,7 @@
         <v>54</v>
       </c>
       <c r="E369" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F369" s="4">
         <v>20</v>
@@ -36693,12 +36693,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>25</v>
@@ -36785,12 +36785,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="371" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>57</v>
@@ -36877,21 +36877,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="372" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C372" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D372" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E372" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F372" s="4">
         <v>26</v>
@@ -36969,18 +36969,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="373" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E373" s="4" t="s">
         <v>50</v>
@@ -37061,15 +37061,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="374" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C374" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D374" s="4" t="s">
         <v>54</v>
@@ -37153,12 +37153,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="375" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>25</v>
@@ -37245,15 +37245,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="376" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C376" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D376" s="4" t="s">
         <v>54</v>
@@ -37337,12 +37337,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="377" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>25</v>
@@ -37351,7 +37351,7 @@
         <v>54</v>
       </c>
       <c r="E377" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F377" s="4">
         <v>19</v>
@@ -37429,21 +37429,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="378" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C378" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D378" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E378" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F378" s="4">
         <v>21</v>
@@ -37521,18 +37521,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="379" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E379" s="4" t="s">
         <v>32</v>
@@ -37613,15 +37613,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="380" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>483</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>484</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>49</v>
@@ -37705,21 +37705,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="381" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E381" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F381" s="4">
         <v>20</v>
@@ -37797,15 +37797,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C382" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D382" s="4" t="s">
         <v>39</v>
@@ -37889,12 +37889,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="383" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -37903,7 +37903,7 @@
         <v>39</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F383" s="4">
         <v>32</v>
@@ -37981,12 +37981,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="384" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>25</v>
@@ -37995,7 +37995,7 @@
         <v>22</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F384" s="4">
         <v>25</v>
@@ -38073,12 +38073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>25</v>
@@ -38165,12 +38165,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="386" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -38257,15 +38257,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="387" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C387" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D387" s="4" t="s">
         <v>54</v>
@@ -38349,12 +38349,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>25</v>
@@ -38441,15 +38441,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="389" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C389" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D389" s="4" t="s">
         <v>64</v>
@@ -38533,12 +38533,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>25</v>
@@ -38625,12 +38625,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="391" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>25</v>
@@ -38717,15 +38717,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="392" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C392" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D392" s="4" t="s">
         <v>54</v>
@@ -38809,12 +38809,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="393" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>25</v>
@@ -38901,21 +38901,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="394" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C394" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D394" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E394" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F394" s="4">
         <v>27</v>
@@ -38993,12 +38993,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>25</v>
@@ -39007,7 +39007,7 @@
         <v>64</v>
       </c>
       <c r="E395" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F395" s="4">
         <v>22</v>
@@ -39085,15 +39085,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="396" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C396" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D396" s="4" t="s">
         <v>37</v>
@@ -39177,15 +39177,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="397" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C397" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D397" s="4" t="s">
         <v>54</v>
@@ -39269,21 +39269,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>501</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>502</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E398" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F398" s="4">
         <v>24</v>
@@ -39361,21 +39361,21 @@
         <v>25</v>
       </c>
     </row>
-    <row r="399" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C399" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D399" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E399" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F399" s="4">
         <v>22</v>
@@ -39453,12 +39453,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="400" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>25</v>
@@ -39467,7 +39467,7 @@
         <v>49</v>
       </c>
       <c r="E400" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F400" s="4">
         <v>17</v>
@@ -39545,12 +39545,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>25</v>
@@ -39637,12 +39637,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="402" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>25</v>
@@ -39651,7 +39651,7 @@
         <v>64</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F402" s="4">
         <v>27</v>
@@ -39729,12 +39729,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="403" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>46</v>
@@ -39821,12 +39821,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>25</v>
@@ -39835,7 +39835,7 @@
         <v>64</v>
       </c>
       <c r="E404" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F404" s="4">
         <v>19</v>
@@ -39913,21 +39913,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="405" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C405" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D405" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E405" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F405" s="4">
         <v>27</v>
@@ -40005,15 +40005,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C406" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D406" s="4" t="s">
         <v>39</v>
@@ -40097,15 +40097,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C407" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D407" s="4" t="s">
         <v>54</v>
@@ -40189,12 +40189,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="408" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>25</v>
@@ -40281,15 +40281,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C409" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D409" s="4" t="s">
         <v>64</v>
@@ -40373,15 +40373,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>514</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>515</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>52</v>
@@ -40465,12 +40465,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="411" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>25</v>
@@ -40557,21 +40557,21 @@
         <v>26</v>
       </c>
     </row>
-    <row r="412" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D412" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E412" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F412" s="4">
         <v>33</v>
@@ -40649,15 +40649,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="413" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C413" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D413" s="4" t="s">
         <v>52</v>
@@ -40741,15 +40741,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>64</v>
@@ -40833,15 +40833,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>37</v>
@@ -40925,12 +40925,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>25</v>
@@ -41017,15 +41017,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C417" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D417" s="4" t="s">
         <v>22</v>
@@ -41109,15 +41109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C418" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D418" s="4" t="s">
         <v>54</v>
@@ -41201,21 +41201,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E419" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F419" s="4">
         <v>27</v>
@@ -41293,12 +41293,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>25</v>
@@ -41385,12 +41385,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>25</v>
@@ -41399,7 +41399,7 @@
         <v>37</v>
       </c>
       <c r="E421" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F421" s="4">
         <v>36</v>
@@ -41477,12 +41477,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>25</v>
@@ -41491,7 +41491,7 @@
         <v>49</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F422" s="4">
         <v>27</v>
@@ -41569,21 +41569,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="423" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C423" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D423" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F423" s="4">
         <v>33</v>
@@ -41661,15 +41661,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="424" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C424" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D424" s="4" t="s">
         <v>52</v>
@@ -41753,15 +41753,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="425" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>37</v>
@@ -41845,12 +41845,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="426" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>25</v>
@@ -41937,15 +41937,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C427" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D427" s="4" t="s">
         <v>37</v>
@@ -42029,12 +42029,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>25</v>
@@ -42121,12 +42121,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="429" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>21</v>
@@ -42213,15 +42213,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>22</v>
@@ -42305,12 +42305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>25</v>
@@ -42397,12 +42397,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="432" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>25</v>
@@ -42489,12 +42489,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>25</v>
@@ -42581,12 +42581,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="434" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>25</v>
@@ -42673,18 +42673,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="435" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>26</v>
@@ -42765,12 +42765,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="436" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>25</v>
@@ -42857,12 +42857,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="437" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>25</v>
@@ -42949,12 +42949,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>25</v>
@@ -42963,7 +42963,7 @@
         <v>22</v>
       </c>
       <c r="E438" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F438" s="4">
         <v>33</v>
@@ -43041,15 +43041,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C439" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D439" s="4" t="s">
         <v>22</v>
@@ -43133,12 +43133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>25</v>
@@ -43225,12 +43225,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="441" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>25</v>
@@ -43317,12 +43317,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="442" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>25</v>
@@ -43331,7 +43331,7 @@
         <v>52</v>
       </c>
       <c r="E442" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F442" s="4">
         <v>20</v>
@@ -43409,15 +43409,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="443" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D443" s="4" t="s">
         <v>37</v>
@@ -43501,21 +43501,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="444" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C444" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D444" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E444" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F444" s="4">
         <v>23</v>
@@ -43593,15 +43593,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C445" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D445" s="4" t="s">
         <v>22</v>
@@ -43685,12 +43685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>25</v>
@@ -43699,7 +43699,7 @@
         <v>54</v>
       </c>
       <c r="E446" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F446" s="4">
         <v>19</v>
@@ -43777,15 +43777,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="447" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C447" s="4" t="s">
         <v>549</v>
-      </c>
-      <c r="C447" s="4" t="s">
-        <v>550</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>37</v>
@@ -43869,12 +43869,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>25</v>
@@ -43961,15 +43961,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>22</v>
@@ -44053,12 +44053,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>25</v>
@@ -44145,18 +44145,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>57</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>65</v>
@@ -44237,15 +44237,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="452" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="C452" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>555</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>54</v>
@@ -44329,12 +44329,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>25</v>
@@ -44421,15 +44421,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="454" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>39</v>
@@ -44513,15 +44513,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C455" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D455" s="4" t="s">
         <v>54</v>
@@ -44605,15 +44605,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="456" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C456" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D456" s="4" t="s">
         <v>49</v>
@@ -44697,15 +44697,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="457" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C457" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D457" s="4" t="s">
         <v>39</v>
@@ -44789,12 +44789,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>25</v>
@@ -44881,15 +44881,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="459" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>39</v>
@@ -44973,15 +44973,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C460" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D460" s="4" t="s">
         <v>64</v>
@@ -45065,12 +45065,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="461" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>25</v>
@@ -45157,15 +45157,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="462" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C462" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D462" s="4" t="s">
         <v>54</v>
@@ -45249,12 +45249,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="463" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>25</v>
@@ -45263,7 +45263,7 @@
         <v>54</v>
       </c>
       <c r="E463" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F463" s="4">
         <v>19</v>
@@ -45341,12 +45341,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>25</v>
@@ -45433,12 +45433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>25</v>
@@ -45525,15 +45525,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="466" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>39</v>
@@ -45617,12 +45617,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="467" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>25</v>
@@ -45631,7 +45631,7 @@
         <v>39</v>
       </c>
       <c r="E467" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F467" s="4">
         <v>28</v>
@@ -45709,15 +45709,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C468" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D468" s="4" t="s">
         <v>49</v>
@@ -45801,12 +45801,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>25</v>
@@ -45815,7 +45815,7 @@
         <v>39</v>
       </c>
       <c r="E469" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F469" s="4">
         <v>20</v>
@@ -45893,15 +45893,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D470" s="4" t="s">
         <v>37</v>
@@ -45985,21 +45985,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="471" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C471" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E471" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F471" s="4">
         <v>27</v>
@@ -46077,12 +46077,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>25</v>
@@ -46169,18 +46169,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="473" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>50</v>
@@ -46261,12 +46261,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="474" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>25</v>
@@ -46353,15 +46353,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C475" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D475" s="4" t="s">
         <v>52</v>
@@ -46445,15 +46445,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>579</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>580</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>64</v>
@@ -46537,21 +46537,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C477" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D477" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E477" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F477" s="4">
         <v>23</v>
@@ -46629,21 +46629,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C478" s="4" t="s">
         <v>582</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>583</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E478" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F478" s="4">
         <v>17</v>
@@ -46719,12 +46719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>25</v>
@@ -46811,18 +46811,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="480" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>65</v>
@@ -46903,12 +46903,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>25</v>
@@ -46995,18 +46995,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="482" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E482" s="4" t="s">
         <v>43</v>
@@ -47087,15 +47087,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C483" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D483" s="4" t="s">
         <v>54</v>
@@ -47179,12 +47179,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>25</v>
@@ -47193,7 +47193,7 @@
         <v>54</v>
       </c>
       <c r="E484" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F484" s="4">
         <v>27</v>
@@ -47271,12 +47271,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="485" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>25</v>
@@ -47363,12 +47363,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="486" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>25</v>
@@ -47455,12 +47455,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>25</v>
@@ -47545,12 +47545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>25</v>
@@ -47637,12 +47637,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>25</v>
@@ -47729,12 +47729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>25</v>
@@ -47743,7 +47743,7 @@
         <v>64</v>
       </c>
       <c r="E490" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F490" s="4">
         <v>25</v>
@@ -47821,15 +47821,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="491" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C491" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D491" s="4" t="s">
         <v>37</v>
@@ -47913,21 +47913,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="492" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>597</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>598</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E492" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F492" s="4">
         <v>31</v>
@@ -48005,15 +48005,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C493" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D493" s="4" t="s">
         <v>54</v>
@@ -48097,12 +48097,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>25</v>
@@ -48189,15 +48189,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C495" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D495" s="4" t="s">
         <v>22</v>
@@ -48281,12 +48281,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>25</v>
@@ -48373,15 +48373,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C497" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D497" s="4" t="s">
         <v>37</v>
@@ -48465,15 +48465,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="498" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C498" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D498" s="4" t="s">
         <v>54</v>
@@ -48557,21 +48557,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="499" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C499" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D499" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E499" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F499" s="4">
         <v>22</v>
@@ -48649,21 +48649,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:30" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C500" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D500" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E500" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F500" s="4">
         <v>19</v>
@@ -48741,7 +48741,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="501" spans="1:30" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/18/france_passing.xlsx
+++ b/data/league_data/france/18/france_passing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAD4541-11A3-C84F-B7F3-EE423EA34F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E78955F-6FFF-4D44-93C2-91FF054002D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -868,9 +868,6 @@
     <t>ht HAI</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Neymar</t>
   </si>
   <si>
@@ -1841,6 +1838,9 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
   </si>
 </sst>
 </file>
@@ -2710,8 +2710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4590,7 +4590,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>66</v>
@@ -20598,7 +20598,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>282</v>
+        <v>606</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>66</v>
@@ -20690,7 +20690,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>66</v>
@@ -20782,7 +20782,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>25</v>
@@ -20874,7 +20874,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>220</v>
@@ -20966,7 +20966,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>91</v>
@@ -21058,7 +21058,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>25</v>
@@ -21150,7 +21150,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>25</v>
@@ -21242,7 +21242,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>66</v>
@@ -21334,7 +21334,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>249</v>
@@ -21426,10 +21426,10 @@
         <v>203</v>
       </c>
       <c r="B204" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="D204" s="4" t="s">
         <v>37</v>
@@ -21518,7 +21518,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>70</v>
@@ -21610,7 +21610,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>57</v>
@@ -21702,7 +21702,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>207</v>
@@ -21794,10 +21794,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C208" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="D208" s="4" t="s">
         <v>37</v>
@@ -21886,7 +21886,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>25</v>
@@ -21978,10 +21978,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="D210" s="4" t="s">
         <v>64</v>
@@ -22070,7 +22070,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>25</v>
@@ -22162,10 +22162,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C212" s="4" t="s">
         <v>302</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>303</v>
       </c>
       <c r="D212" s="4" t="s">
         <v>37</v>
@@ -22254,7 +22254,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>25</v>
@@ -22346,7 +22346,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>25</v>
@@ -22438,7 +22438,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>70</v>
@@ -22530,7 +22530,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>87</v>
@@ -22622,7 +22622,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>25</v>
@@ -22714,7 +22714,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>87</v>
@@ -22806,7 +22806,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>25</v>
@@ -22898,7 +22898,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>91</v>
@@ -22990,7 +22990,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>25</v>
@@ -23082,7 +23082,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>159</v>
@@ -23174,7 +23174,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>70</v>
@@ -23266,7 +23266,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>25</v>
@@ -23358,7 +23358,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>25</v>
@@ -23450,7 +23450,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>216</v>
@@ -23542,7 +23542,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>159</v>
@@ -23634,7 +23634,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>207</v>
@@ -23726,7 +23726,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>220</v>
@@ -23818,7 +23818,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>25</v>
@@ -23910,7 +23910,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>70</v>
@@ -24002,7 +24002,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>101</v>
@@ -24094,7 +24094,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>25</v>
@@ -24186,7 +24186,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>237</v>
@@ -24278,7 +24278,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>175</v>
@@ -24370,7 +24370,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>25</v>
@@ -24462,7 +24462,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>103</v>
@@ -24554,7 +24554,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>256</v>
@@ -24646,7 +24646,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>237</v>
@@ -24738,7 +24738,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>25</v>
@@ -24830,7 +24830,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>220</v>
@@ -24922,7 +24922,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>101</v>
@@ -25014,7 +25014,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>25</v>
@@ -25106,7 +25106,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>25</v>
@@ -25198,7 +25198,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>25</v>
@@ -25290,7 +25290,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>87</v>
@@ -25382,7 +25382,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>66</v>
@@ -25474,7 +25474,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>25</v>
@@ -25566,10 +25566,10 @@
         <v>248</v>
       </c>
       <c r="B249" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C249" s="4" t="s">
         <v>340</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>341</v>
       </c>
       <c r="D249" s="4" t="s">
         <v>37</v>
@@ -25658,7 +25658,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>25</v>
@@ -25750,7 +25750,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>66</v>
@@ -25842,7 +25842,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>25</v>
@@ -25934,7 +25934,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>70</v>
@@ -26026,7 +26026,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>25</v>
@@ -26118,7 +26118,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>197</v>
@@ -26210,10 +26210,10 @@
         <v>255</v>
       </c>
       <c r="B256" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C256" s="4" t="s">
         <v>348</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>349</v>
       </c>
       <c r="D256" s="4" t="s">
         <v>37</v>
@@ -26302,10 +26302,10 @@
         <v>256</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D257" s="4" t="s">
         <v>37</v>
@@ -26394,7 +26394,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>25</v>
@@ -26486,7 +26486,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>25</v>
@@ -26578,10 +26578,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D260" s="4" t="s">
         <v>49</v>
@@ -26670,7 +26670,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>25</v>
@@ -26762,7 +26762,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>25</v>
@@ -26854,7 +26854,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>25</v>
@@ -26946,7 +26946,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>57</v>
@@ -27038,7 +27038,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>70</v>
@@ -27130,7 +27130,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>25</v>
@@ -27222,7 +27222,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>25</v>
@@ -27314,7 +27314,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>25</v>
@@ -27406,7 +27406,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>91</v>
@@ -27498,7 +27498,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>70</v>
@@ -27590,7 +27590,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>25</v>
@@ -27682,7 +27682,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>25</v>
@@ -27774,7 +27774,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>25</v>
@@ -27866,10 +27866,10 @@
         <v>273</v>
       </c>
       <c r="B274" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>367</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>368</v>
       </c>
       <c r="D274" s="4" t="s">
         <v>39</v>
@@ -27958,7 +27958,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>66</v>
@@ -28050,7 +28050,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>175</v>
@@ -28142,10 +28142,10 @@
         <v>276</v>
       </c>
       <c r="B277" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C277" s="4" t="s">
         <v>371</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>372</v>
       </c>
       <c r="D277" s="4" t="s">
         <v>54</v>
@@ -28234,7 +28234,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>66</v>
@@ -28326,7 +28326,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>25</v>
@@ -28418,7 +28418,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>101</v>
@@ -28510,7 +28510,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>227</v>
@@ -28602,7 +28602,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>103</v>
@@ -28694,7 +28694,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>25</v>
@@ -28786,7 +28786,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>72</v>
@@ -28878,7 +28878,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>25</v>
@@ -28970,10 +28970,10 @@
         <v>285</v>
       </c>
       <c r="B286" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C286" s="4" t="s">
         <v>381</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>382</v>
       </c>
       <c r="D286" s="4" t="s">
         <v>37</v>
@@ -29062,7 +29062,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>25</v>
@@ -29154,7 +29154,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>197</v>
@@ -29246,7 +29246,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>239</v>
@@ -29338,7 +29338,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>87</v>
@@ -29430,7 +29430,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>25</v>
@@ -29522,7 +29522,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>25</v>
@@ -29614,7 +29614,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>25</v>
@@ -29706,10 +29706,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C294" s="4" t="s">
         <v>390</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>391</v>
       </c>
       <c r="D294" s="4" t="s">
         <v>37</v>
@@ -29798,7 +29798,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>207</v>
@@ -29890,7 +29890,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>175</v>
@@ -29982,7 +29982,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>25</v>
@@ -30074,7 +30074,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>25</v>
@@ -30166,7 +30166,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>237</v>
@@ -30258,10 +30258,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C300" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D300" s="4" t="s">
         <v>37</v>
@@ -30350,7 +30350,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>91</v>
@@ -30442,7 +30442,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>87</v>
@@ -30534,10 +30534,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C303" s="4" t="s">
         <v>400</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>401</v>
       </c>
       <c r="D303" s="4" t="s">
         <v>39</v>
@@ -30626,10 +30626,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C304" s="4" t="s">
         <v>402</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>403</v>
       </c>
       <c r="D304" s="4" t="s">
         <v>37</v>
@@ -30718,10 +30718,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C305" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D305" s="4" t="s">
         <v>52</v>
@@ -30810,7 +30810,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>79</v>
@@ -30902,7 +30902,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>25</v>
@@ -30994,7 +30994,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>229</v>
@@ -31086,7 +31086,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>239</v>
@@ -31178,7 +31178,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>25</v>
@@ -31270,7 +31270,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>21</v>
@@ -31362,7 +31362,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>70</v>
@@ -31454,7 +31454,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>25</v>
@@ -31546,7 +31546,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>25</v>
@@ -31638,7 +31638,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>197</v>
@@ -31730,7 +31730,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>197</v>
@@ -31822,7 +31822,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>114</v>
@@ -31914,7 +31914,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>220</v>
@@ -32006,7 +32006,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>87</v>
@@ -32098,7 +32098,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>25</v>
@@ -32190,7 +32190,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>70</v>
@@ -32282,7 +32282,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>25</v>
@@ -32374,7 +32374,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>25</v>
@@ -32466,7 +32466,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>101</v>
@@ -32558,7 +32558,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>70</v>
@@ -32650,7 +32650,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>25</v>
@@ -32742,7 +32742,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>197</v>
@@ -32834,7 +32834,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>25</v>
@@ -32926,7 +32926,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>42</v>
@@ -33018,10 +33018,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C330" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="D330" s="4" t="s">
         <v>37</v>
@@ -33110,7 +33110,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>107</v>
@@ -33202,7 +33202,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>25</v>
@@ -33294,10 +33294,10 @@
         <v>332</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C333" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D333" s="4" t="s">
         <v>64</v>
@@ -33386,7 +33386,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>281</v>
@@ -33478,7 +33478,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>239</v>
@@ -33570,10 +33570,10 @@
         <v>335</v>
       </c>
       <c r="B336" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>436</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>437</v>
       </c>
       <c r="D336" s="4" t="s">
         <v>52</v>
@@ -33662,7 +33662,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>25</v>
@@ -33754,7 +33754,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>87</v>
@@ -33846,7 +33846,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>83</v>
@@ -33938,7 +33938,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>25</v>
@@ -34030,7 +34030,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>91</v>
@@ -34122,7 +34122,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>25</v>
@@ -34214,7 +34214,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>216</v>
@@ -34306,7 +34306,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>101</v>
@@ -34398,7 +34398,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>70</v>
@@ -34490,10 +34490,10 @@
         <v>345</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C346" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D346" s="4" t="s">
         <v>98</v>
@@ -34582,7 +34582,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>103</v>
@@ -34674,7 +34674,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>25</v>
@@ -34766,7 +34766,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>25</v>
@@ -34858,7 +34858,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>25</v>
@@ -34950,7 +34950,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>153</v>
@@ -35042,10 +35042,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C352" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D352" s="4" t="s">
         <v>54</v>
@@ -35134,7 +35134,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>21</v>
@@ -35226,7 +35226,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>70</v>
@@ -35318,7 +35318,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>101</v>
@@ -35410,10 +35410,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C356" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D356" s="4" t="s">
         <v>37</v>
@@ -35502,10 +35502,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C357" s="4" t="s">
         <v>459</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>460</v>
       </c>
       <c r="D357" s="4" t="s">
         <v>52</v>
@@ -35594,7 +35594,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>25</v>
@@ -35686,7 +35686,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>25</v>
@@ -35778,7 +35778,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>25</v>
@@ -35870,7 +35870,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>216</v>
@@ -35962,7 +35962,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>25</v>
@@ -36054,7 +36054,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>25</v>
@@ -36146,7 +36146,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>25</v>
@@ -36238,10 +36238,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D365" s="4" t="s">
         <v>37</v>
@@ -36330,7 +36330,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>101</v>
@@ -36422,7 +36422,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>101</v>
@@ -36514,7 +36514,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>256</v>
@@ -36606,7 +36606,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>25</v>
@@ -36698,7 +36698,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>25</v>
@@ -36790,7 +36790,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>57</v>
@@ -36882,7 +36882,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>167</v>
@@ -36974,10 +36974,10 @@
         <v>372</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C373" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D373" s="4" t="s">
         <v>98</v>
@@ -37066,7 +37066,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>237</v>
@@ -37158,7 +37158,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>25</v>
@@ -37250,7 +37250,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>66</v>
@@ -37342,7 +37342,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>25</v>
@@ -37434,7 +37434,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>70</v>
@@ -37526,7 +37526,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>25</v>
@@ -37618,10 +37618,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C380" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="D380" s="4" t="s">
         <v>49</v>
@@ -37710,7 +37710,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>25</v>
@@ -37802,7 +37802,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>87</v>
@@ -37894,7 +37894,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>25</v>
@@ -37986,7 +37986,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>25</v>
@@ -38078,7 +38078,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>25</v>
@@ -38170,7 +38170,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>25</v>
@@ -38262,7 +38262,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>72</v>
@@ -38354,7 +38354,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>25</v>
@@ -38446,7 +38446,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>66</v>
@@ -38538,7 +38538,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>25</v>
@@ -38630,7 +38630,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>25</v>
@@ -38722,7 +38722,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>87</v>
@@ -38814,7 +38814,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>25</v>
@@ -38906,7 +38906,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>83</v>
@@ -38998,7 +38998,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>25</v>
@@ -39090,7 +39090,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>70</v>
@@ -39182,7 +39182,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>70</v>
@@ -39274,10 +39274,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C398" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="D398" s="4" t="s">
         <v>37</v>
@@ -39366,7 +39366,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>237</v>
@@ -39458,7 +39458,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>25</v>
@@ -39550,7 +39550,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>25</v>
@@ -39642,7 +39642,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>25</v>
@@ -39734,7 +39734,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>46</v>
@@ -39826,7 +39826,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>25</v>
@@ -39918,7 +39918,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>197</v>
@@ -40010,7 +40010,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>72</v>
@@ -40102,7 +40102,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>91</v>
@@ -40194,7 +40194,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>25</v>
@@ -40286,7 +40286,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>72</v>
@@ -40378,10 +40378,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C410" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="C410" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="D410" s="4" t="s">
         <v>52</v>
@@ -40470,7 +40470,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>25</v>
@@ -40562,7 +40562,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>159</v>
@@ -40654,7 +40654,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>72</v>
@@ -40746,10 +40746,10 @@
         <v>413</v>
       </c>
       <c r="B414" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C414" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D414" s="4" t="s">
         <v>64</v>
@@ -40838,10 +40838,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C415" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D415" s="4" t="s">
         <v>37</v>
@@ -40930,7 +40930,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>25</v>
@@ -41022,7 +41022,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>175</v>
@@ -41114,7 +41114,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>245</v>
@@ -41206,10 +41206,10 @@
         <v>418</v>
       </c>
       <c r="B419" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C419" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D419" s="4" t="s">
         <v>22</v>
@@ -41298,7 +41298,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>25</v>
@@ -41390,7 +41390,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>25</v>
@@ -41482,7 +41482,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>25</v>
@@ -41574,7 +41574,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>83</v>
@@ -41666,7 +41666,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>103</v>
@@ -41758,10 +41758,10 @@
         <v>424</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D425" s="4" t="s">
         <v>37</v>
@@ -41850,7 +41850,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>25</v>
@@ -41942,7 +41942,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>220</v>
@@ -42034,7 +42034,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>25</v>
@@ -42126,7 +42126,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>21</v>
@@ -42218,10 +42218,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C430" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D430" s="4" t="s">
         <v>22</v>
@@ -42310,7 +42310,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>25</v>
@@ -42402,7 +42402,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>25</v>
@@ -42494,7 +42494,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>25</v>
@@ -42678,7 +42678,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>25</v>
@@ -42770,7 +42770,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>25</v>
@@ -42862,7 +42862,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>25</v>
@@ -42954,7 +42954,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>25</v>
@@ -43046,7 +43046,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>70</v>
@@ -43138,7 +43138,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>25</v>
@@ -43230,7 +43230,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>25</v>
@@ -43322,7 +43322,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>25</v>
@@ -43414,7 +43414,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>159</v>
@@ -43506,7 +43506,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>70</v>
@@ -43598,7 +43598,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>70</v>
@@ -43690,7 +43690,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>25</v>
@@ -43782,10 +43782,10 @@
         <v>446</v>
       </c>
       <c r="B447" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="C447" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="C447" s="4" t="s">
-        <v>549</v>
       </c>
       <c r="D447" s="4" t="s">
         <v>37</v>
@@ -43966,10 +43966,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D449" s="4" t="s">
         <v>22</v>
@@ -44058,7 +44058,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>25</v>
@@ -44150,7 +44150,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>57</v>
@@ -44242,10 +44242,10 @@
         <v>451</v>
       </c>
       <c r="B452" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="C452" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="C452" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="D452" s="4" t="s">
         <v>54</v>
@@ -44334,7 +44334,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>25</v>
@@ -44426,10 +44426,10 @@
         <v>453</v>
       </c>
       <c r="B454" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C454" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D454" s="4" t="s">
         <v>39</v>
@@ -44518,7 +44518,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>216</v>
@@ -44610,7 +44610,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>103</v>
@@ -44702,7 +44702,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>87</v>
@@ -44794,7 +44794,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>25</v>
@@ -44886,10 +44886,10 @@
         <v>458</v>
       </c>
       <c r="B459" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C459" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D459" s="4" t="s">
         <v>39</v>
@@ -44978,7 +44978,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>103</v>
@@ -45070,7 +45070,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>25</v>
@@ -45162,7 +45162,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>197</v>
@@ -45254,7 +45254,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>25</v>
@@ -45346,7 +45346,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>25</v>
@@ -45438,7 +45438,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>25</v>
@@ -45530,10 +45530,10 @@
         <v>465</v>
       </c>
       <c r="B466" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C466" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D466" s="4" t="s">
         <v>39</v>
@@ -45622,7 +45622,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>25</v>
@@ -45714,7 +45714,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>216</v>
@@ -45806,7 +45806,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>25</v>
@@ -45898,7 +45898,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>249</v>
@@ -45990,7 +45990,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>70</v>
@@ -46082,7 +46082,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>25</v>
@@ -46174,7 +46174,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>25</v>
@@ -46266,7 +46266,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>25</v>
@@ -46358,7 +46358,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>91</v>
@@ -46450,10 +46450,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C476" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="C476" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="D476" s="4" t="s">
         <v>64</v>
@@ -46542,7 +46542,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>101</v>
@@ -46634,10 +46634,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C478" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="C478" s="4" t="s">
-        <v>582</v>
       </c>
       <c r="D478" s="4" t="s">
         <v>52</v>
@@ -46724,7 +46724,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>25</v>
@@ -46816,13 +46816,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>65</v>
@@ -46908,7 +46908,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>25</v>
@@ -47000,10 +47000,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C482" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D482" s="4" t="s">
         <v>143</v>
@@ -47092,7 +47092,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>249</v>
@@ -47184,7 +47184,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>25</v>
@@ -47276,7 +47276,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>25</v>
@@ -47368,7 +47368,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>25</v>
@@ -47460,7 +47460,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>25</v>
@@ -47550,7 +47550,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>25</v>
@@ -47642,7 +47642,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>25</v>
@@ -47734,7 +47734,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>25</v>
@@ -47826,7 +47826,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>220</v>
@@ -47918,10 +47918,10 @@
         <v>491</v>
       </c>
       <c r="B492" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="C492" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="C492" s="4" t="s">
-        <v>597</v>
       </c>
       <c r="D492" s="4" t="s">
         <v>37</v>
@@ -48010,7 +48010,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>237</v>
@@ -48102,7 +48102,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>25</v>
@@ -48194,7 +48194,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>197</v>
@@ -48286,7 +48286,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>25</v>
@@ -48378,7 +48378,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>72</v>
@@ -48470,7 +48470,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>66</v>
@@ -48562,7 +48562,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>66</v>
@@ -48654,7 +48654,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>66</v>
